--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/53/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/53/FD_Curve.xlsx
@@ -463,1102 +463,1102 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0310028</v>
+        <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7367279999999999</v>
+        <v>1.11364</v>
       </c>
       <c r="C3" t="n">
-        <v>736.728</v>
+        <v>1113.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620106</v>
+        <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.12782</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1127.82</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0930004</v>
+        <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.51385</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1513.85</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124004</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>1.89231</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1892.31</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155034</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.26689</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>2266.89</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.18601</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.55197</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>2551.97</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216986</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.765</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>2765</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247962</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>2.93601</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2936.01</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278883</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>3.00762</v>
+        <v>9.970270000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>3007.62</v>
+        <v>9970.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309808</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>3.0363</v>
+        <v>10.8301</v>
       </c>
       <c r="C12" t="n">
-        <v>3036.3</v>
+        <v>10830.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340733</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>3.04708</v>
+        <v>11.5123</v>
       </c>
       <c r="C13" t="n">
-        <v>3047.08</v>
+        <v>11512.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371658</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>3.05461</v>
+        <v>12.2181</v>
       </c>
       <c r="C14" t="n">
-        <v>3054.61</v>
+        <v>12218.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402583</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>3.06175</v>
+        <v>12.7539</v>
       </c>
       <c r="C15" t="n">
-        <v>3061.75</v>
+        <v>12753.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433508</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0684</v>
+        <v>13.1071</v>
       </c>
       <c r="C16" t="n">
-        <v>3068.4</v>
+        <v>13107.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464433</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>3.07394</v>
+        <v>13.2681</v>
       </c>
       <c r="C17" t="n">
-        <v>3073.94</v>
+        <v>13268.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495358</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>3.07935</v>
+        <v>13.3112</v>
       </c>
       <c r="C18" t="n">
-        <v>3079.35</v>
+        <v>13311.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5262829999999999</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>3.08441</v>
+        <v>13.2662</v>
       </c>
       <c r="C19" t="n">
-        <v>3084.41</v>
+        <v>13266.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557208</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>3.08904</v>
+        <v>13.2079</v>
       </c>
       <c r="C20" t="n">
-        <v>3089.04</v>
+        <v>13207.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588133</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>3.09351</v>
+        <v>13.1468</v>
       </c>
       <c r="C21" t="n">
-        <v>3093.51</v>
+        <v>13146.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619175</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>3.09772</v>
+        <v>13.0743</v>
       </c>
       <c r="C22" t="n">
-        <v>3097.72</v>
+        <v>13074.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650348</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>3.10176</v>
+        <v>12.9901</v>
       </c>
       <c r="C23" t="n">
-        <v>3101.76</v>
+        <v>12990.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681525</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>3.10558</v>
+        <v>12.9037</v>
       </c>
       <c r="C24" t="n">
-        <v>3105.58</v>
+        <v>12903.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712697</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>3.10925</v>
+        <v>12.8066</v>
       </c>
       <c r="C25" t="n">
-        <v>3109.25</v>
+        <v>12806.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74387</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>3.11274</v>
+        <v>12.7023</v>
       </c>
       <c r="C26" t="n">
-        <v>3112.74</v>
+        <v>12702.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775047</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>3.1161</v>
+        <v>12.5952</v>
       </c>
       <c r="C27" t="n">
-        <v>3116.1</v>
+        <v>12595.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806219</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>3.11932</v>
+        <v>12.4746</v>
       </c>
       <c r="C28" t="n">
-        <v>3119.32</v>
+        <v>12474.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837392</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>3.12241</v>
+        <v>12.3567</v>
       </c>
       <c r="C29" t="n">
-        <v>3122.41</v>
+        <v>12356.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868569</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>3.12539</v>
+        <v>12.223</v>
       </c>
       <c r="C30" t="n">
-        <v>3125.39</v>
+        <v>12223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899741</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>3.12824</v>
+        <v>12.0905</v>
       </c>
       <c r="C31" t="n">
-        <v>3128.24</v>
+        <v>12090.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930914</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>3.13099</v>
+        <v>11.9471</v>
       </c>
       <c r="C32" t="n">
-        <v>3130.99</v>
+        <v>11947.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962091</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>3.13364</v>
+        <v>11.7972</v>
       </c>
       <c r="C33" t="n">
-        <v>3133.64</v>
+        <v>11797.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993264</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>3.13619</v>
+        <v>11.6449</v>
       </c>
       <c r="C34" t="n">
-        <v>3136.19</v>
+        <v>11644.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>3.13864</v>
+        <v>11.4789</v>
       </c>
       <c r="C35" t="n">
-        <v>3138.64</v>
+        <v>11478.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05579</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>3.141</v>
+        <v>11.3156</v>
       </c>
       <c r="C36" t="n">
-        <v>3141</v>
+        <v>11315.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08676</v>
+        <v>1.0862</v>
       </c>
       <c r="B37" t="n">
-        <v>3.14327</v>
+        <v>11.136</v>
       </c>
       <c r="C37" t="n">
-        <v>3143.27</v>
+        <v>11136</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11773</v>
+        <v>1.11719</v>
       </c>
       <c r="B38" t="n">
-        <v>3.14545</v>
+        <v>4.06163</v>
       </c>
       <c r="C38" t="n">
-        <v>3145.45</v>
+        <v>4061.63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1487</v>
+        <v>1.148</v>
       </c>
       <c r="B39" t="n">
-        <v>3.14755</v>
+        <v>11.3315</v>
       </c>
       <c r="C39" t="n">
-        <v>3147.55</v>
+        <v>11331.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17966</v>
+        <v>1.17916</v>
       </c>
       <c r="B40" t="n">
-        <v>3.14957</v>
+        <v>9.718170000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>3149.57</v>
+        <v>9718.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21063</v>
+        <v>1.20999</v>
       </c>
       <c r="B41" t="n">
-        <v>3.15152</v>
+        <v>10.1194</v>
       </c>
       <c r="C41" t="n">
-        <v>3151.52</v>
+        <v>10119.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.2416</v>
+        <v>1.24122</v>
       </c>
       <c r="B42" t="n">
-        <v>3.15338</v>
+        <v>10.0155</v>
       </c>
       <c r="C42" t="n">
-        <v>3153.38</v>
+        <v>10015.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27219</v>
+        <v>1.27209</v>
       </c>
       <c r="B43" t="n">
-        <v>3.15516</v>
+        <v>10.065</v>
       </c>
       <c r="C43" t="n">
-        <v>3155.16</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30274</v>
+        <v>1.30314</v>
       </c>
       <c r="B44" t="n">
-        <v>3.15688</v>
+        <v>9.883100000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>3156.88</v>
+        <v>9883.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33329</v>
+        <v>1.33416</v>
       </c>
       <c r="B45" t="n">
-        <v>3.15852</v>
+        <v>9.651</v>
       </c>
       <c r="C45" t="n">
-        <v>3158.52</v>
+        <v>9651</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36385</v>
+        <v>1.36494</v>
       </c>
       <c r="B46" t="n">
-        <v>3.16011</v>
+        <v>9.49723</v>
       </c>
       <c r="C46" t="n">
-        <v>3160.11</v>
+        <v>9497.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39476</v>
+        <v>1.39628</v>
       </c>
       <c r="B47" t="n">
-        <v>3.16164</v>
+        <v>9.40842</v>
       </c>
       <c r="C47" t="n">
-        <v>3161.64</v>
+        <v>9408.42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42633</v>
+        <v>1.4273</v>
       </c>
       <c r="B48" t="n">
-        <v>3.16313</v>
+        <v>9.28755</v>
       </c>
       <c r="C48" t="n">
-        <v>3163.13</v>
+        <v>9287.549999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4579</v>
+        <v>1.45832</v>
       </c>
       <c r="B49" t="n">
-        <v>3.16455</v>
+        <v>8.94918</v>
       </c>
       <c r="C49" t="n">
-        <v>3164.55</v>
+        <v>8949.18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48917</v>
+        <v>1.48928</v>
       </c>
       <c r="B50" t="n">
-        <v>3.16592</v>
+        <v>8.677209999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>3165.92</v>
+        <v>8677.209999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52031</v>
+        <v>1.52028</v>
       </c>
       <c r="B51" t="n">
-        <v>3.16723</v>
+        <v>8.39189</v>
       </c>
       <c r="C51" t="n">
-        <v>3167.23</v>
+        <v>8391.889999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55146</v>
+        <v>1.5513</v>
       </c>
       <c r="B52" t="n">
-        <v>3.16848</v>
+        <v>8.311500000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>3168.48</v>
+        <v>8311.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58261</v>
+        <v>1.58218</v>
       </c>
       <c r="B53" t="n">
-        <v>3.16966</v>
+        <v>8.12801</v>
       </c>
       <c r="C53" t="n">
-        <v>3169.66</v>
+        <v>8128.01</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61376</v>
+        <v>1.61325</v>
       </c>
       <c r="B54" t="n">
-        <v>3.17078</v>
+        <v>7.97365</v>
       </c>
       <c r="C54" t="n">
-        <v>3170.78</v>
+        <v>7973.65</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6449</v>
+        <v>1.64418</v>
       </c>
       <c r="B55" t="n">
-        <v>3.17184</v>
+        <v>7.6869</v>
       </c>
       <c r="C55" t="n">
-        <v>3171.84</v>
+        <v>7686.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67605</v>
+        <v>1.67525</v>
       </c>
       <c r="B56" t="n">
-        <v>3.17286</v>
+        <v>7.52307</v>
       </c>
       <c r="C56" t="n">
-        <v>3172.86</v>
+        <v>7523.07</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70702</v>
+        <v>1.70615</v>
       </c>
       <c r="B57" t="n">
-        <v>3.17384</v>
+        <v>7.39666</v>
       </c>
       <c r="C57" t="n">
-        <v>3173.84</v>
+        <v>7396.66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73774</v>
+        <v>1.73736</v>
       </c>
       <c r="B58" t="n">
-        <v>3.17475</v>
+        <v>7.318510000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>3174.75</v>
+        <v>7318.51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76846</v>
+        <v>1.76834</v>
       </c>
       <c r="B59" t="n">
-        <v>3.1756</v>
+        <v>7.127050000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>3175.6</v>
+        <v>7127.05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79918</v>
+        <v>1.79917</v>
       </c>
       <c r="B60" t="n">
-        <v>3.1764</v>
+        <v>6.96791</v>
       </c>
       <c r="C60" t="n">
-        <v>3176.4</v>
+        <v>6967.91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.8299</v>
+        <v>1.83056</v>
       </c>
       <c r="B61" t="n">
-        <v>3.17715</v>
+        <v>6.91008</v>
       </c>
       <c r="C61" t="n">
-        <v>3177.15</v>
+        <v>6910.08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86062</v>
+        <v>1.86138</v>
       </c>
       <c r="B62" t="n">
-        <v>3.17782</v>
+        <v>6.78847</v>
       </c>
       <c r="C62" t="n">
-        <v>3177.82</v>
+        <v>6788.47</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89134</v>
+        <v>1.89214</v>
       </c>
       <c r="B63" t="n">
-        <v>3.17846</v>
+        <v>6.69555</v>
       </c>
       <c r="C63" t="n">
-        <v>3178.46</v>
+        <v>6695.55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92206</v>
+        <v>1.92356</v>
       </c>
       <c r="B64" t="n">
-        <v>3.17904</v>
+        <v>6.53205</v>
       </c>
       <c r="C64" t="n">
-        <v>3179.04</v>
+        <v>6532.05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95295</v>
+        <v>1.95432</v>
       </c>
       <c r="B65" t="n">
-        <v>3.1796</v>
+        <v>6.45957</v>
       </c>
       <c r="C65" t="n">
-        <v>3179.6</v>
+        <v>6459.57</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98429</v>
+        <v>1.98483</v>
       </c>
       <c r="B66" t="n">
-        <v>3.18011</v>
+        <v>6.36143</v>
       </c>
       <c r="C66" t="n">
-        <v>3180.11</v>
+        <v>6361.43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01571</v>
+        <v>2.01645</v>
       </c>
       <c r="B67" t="n">
-        <v>3.18057</v>
+        <v>6.280040000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>3180.57</v>
+        <v>6280.04</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04719</v>
+        <v>2.04753</v>
       </c>
       <c r="B68" t="n">
-        <v>3.18098</v>
+        <v>6.16479</v>
       </c>
       <c r="C68" t="n">
-        <v>3180.98</v>
+        <v>6164.79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07809</v>
+        <v>2.07859</v>
       </c>
       <c r="B69" t="n">
-        <v>3.18133</v>
+        <v>6.10367</v>
       </c>
       <c r="C69" t="n">
-        <v>3181.33</v>
+        <v>6103.67</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10898</v>
+        <v>2.10908</v>
       </c>
       <c r="B70" t="n">
-        <v>3.18162</v>
+        <v>6.02687</v>
       </c>
       <c r="C70" t="n">
-        <v>3181.62</v>
+        <v>6026.87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13988</v>
+        <v>2.14022</v>
       </c>
       <c r="B71" t="n">
-        <v>3.18184</v>
+        <v>5.96496</v>
       </c>
       <c r="C71" t="n">
-        <v>3181.84</v>
+        <v>5964.96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17078</v>
+        <v>2.17093</v>
       </c>
       <c r="B72" t="n">
-        <v>3.18203</v>
+        <v>5.911720000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>3182.03</v>
+        <v>5911.72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20167</v>
+        <v>2.20375</v>
       </c>
       <c r="B73" t="n">
-        <v>3.1822</v>
+        <v>5.92478</v>
       </c>
       <c r="C73" t="n">
-        <v>3182.2</v>
+        <v>5924.78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23257</v>
+        <v>2.23452</v>
       </c>
       <c r="B74" t="n">
-        <v>3.18232</v>
+        <v>5.91821</v>
       </c>
       <c r="C74" t="n">
-        <v>3182.32</v>
+        <v>5918.21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26346</v>
+        <v>2.26524</v>
       </c>
       <c r="B75" t="n">
-        <v>3.18241</v>
+        <v>5.913040000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3182.41</v>
+        <v>5913.04</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29436</v>
+        <v>2.29597</v>
       </c>
       <c r="B76" t="n">
-        <v>3.18243</v>
+        <v>5.886970000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>3182.43</v>
+        <v>5886.97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32526</v>
+        <v>2.32669</v>
       </c>
       <c r="B77" t="n">
-        <v>3.1824</v>
+        <v>5.878060000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>3182.4</v>
+        <v>5878.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35616</v>
+        <v>2.35741</v>
       </c>
       <c r="B78" t="n">
-        <v>3.18234</v>
+        <v>5.83347</v>
       </c>
       <c r="C78" t="n">
-        <v>3182.34</v>
+        <v>5833.47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38705</v>
+        <v>2.38851</v>
       </c>
       <c r="B79" t="n">
-        <v>3.18225</v>
+        <v>5.81179</v>
       </c>
       <c r="C79" t="n">
-        <v>3182.25</v>
+        <v>5811.79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41795</v>
+        <v>2.4198</v>
       </c>
       <c r="B80" t="n">
-        <v>3.18213</v>
+        <v>5.811020000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>3182.13</v>
+        <v>5811.02</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44981</v>
+        <v>2.44835</v>
       </c>
       <c r="B81" t="n">
-        <v>3.18196</v>
+        <v>5.73934</v>
       </c>
       <c r="C81" t="n">
-        <v>3181.96</v>
+        <v>5739.34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48175</v>
+        <v>2.47651</v>
       </c>
       <c r="B82" t="n">
-        <v>3.18173</v>
+        <v>5.76475</v>
       </c>
       <c r="C82" t="n">
-        <v>3181.73</v>
+        <v>5764.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51283</v>
+        <v>2.50945</v>
       </c>
       <c r="B83" t="n">
-        <v>3.18146</v>
+        <v>5.71222</v>
       </c>
       <c r="C83" t="n">
-        <v>3181.46</v>
+        <v>5712.22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54392</v>
+        <v>2.54465</v>
       </c>
       <c r="B84" t="n">
-        <v>3.18117</v>
+        <v>5.679720000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>3181.17</v>
+        <v>5679.72</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57501</v>
+        <v>2.57937</v>
       </c>
       <c r="B85" t="n">
-        <v>3.18082</v>
+        <v>5.63531</v>
       </c>
       <c r="C85" t="n">
-        <v>3180.82</v>
+        <v>5635.31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60609</v>
+        <v>2.61151</v>
       </c>
       <c r="B86" t="n">
-        <v>3.18042</v>
+        <v>5.588979999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>3180.42</v>
+        <v>5588.98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63718</v>
+        <v>2.6435</v>
       </c>
       <c r="B87" t="n">
-        <v>3.17999</v>
+        <v>5.56778</v>
       </c>
       <c r="C87" t="n">
-        <v>3179.99</v>
+        <v>5567.78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66826</v>
+        <v>2.67551</v>
       </c>
       <c r="B88" t="n">
-        <v>3.17952</v>
+        <v>5.552300000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>3179.52</v>
+        <v>5552.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69935</v>
+        <v>2.70751</v>
       </c>
       <c r="B89" t="n">
-        <v>3.17898</v>
+        <v>5.49836</v>
       </c>
       <c r="C89" t="n">
-        <v>3178.98</v>
+        <v>5498.36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73043</v>
+        <v>2.73951</v>
       </c>
       <c r="B90" t="n">
-        <v>3.17841</v>
+        <v>5.48202</v>
       </c>
       <c r="C90" t="n">
-        <v>3178.41</v>
+        <v>5482.02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76152</v>
+        <v>2.77151</v>
       </c>
       <c r="B91" t="n">
-        <v>3.17782</v>
+        <v>5.43991</v>
       </c>
       <c r="C91" t="n">
-        <v>3177.82</v>
+        <v>5439.91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.7926</v>
+        <v>2.80351</v>
       </c>
       <c r="B92" t="n">
-        <v>3.17718</v>
+        <v>5.40778</v>
       </c>
       <c r="C92" t="n">
-        <v>3177.18</v>
+        <v>5407.78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82369</v>
+        <v>2.83551</v>
       </c>
       <c r="B93" t="n">
-        <v>3.17649</v>
+        <v>5.38608</v>
       </c>
       <c r="C93" t="n">
-        <v>3176.49</v>
+        <v>5386.08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85478</v>
+        <v>2.86513</v>
       </c>
       <c r="B94" t="n">
-        <v>3.17577</v>
+        <v>5.35208</v>
       </c>
       <c r="C94" t="n">
-        <v>3175.77</v>
+        <v>5352.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88586</v>
+        <v>2.89394</v>
       </c>
       <c r="B95" t="n">
-        <v>3.17501</v>
+        <v>5.34175</v>
       </c>
       <c r="C95" t="n">
-        <v>3175.01</v>
+        <v>5341.75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91622</v>
+        <v>2.92274</v>
       </c>
       <c r="B96" t="n">
-        <v>3.17422</v>
+        <v>5.28358</v>
       </c>
       <c r="C96" t="n">
-        <v>3174.22</v>
+        <v>5283.58</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94639</v>
+        <v>2.95154</v>
       </c>
       <c r="B97" t="n">
-        <v>3.17338</v>
+        <v>5.2494</v>
       </c>
       <c r="C97" t="n">
-        <v>3173.38</v>
+        <v>5249.4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97656</v>
+        <v>2.98034</v>
       </c>
       <c r="B98" t="n">
-        <v>3.1725</v>
+        <v>5.246840000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>3172.5</v>
+        <v>5246.84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00673</v>
+        <v>3.00914</v>
       </c>
       <c r="B99" t="n">
-        <v>3.17158</v>
+        <v>5.21091</v>
       </c>
       <c r="C99" t="n">
-        <v>3171.58</v>
+        <v>5210.91</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03691</v>
+        <v>3.03794</v>
       </c>
       <c r="B100" t="n">
-        <v>3.17061</v>
+        <v>5.18562</v>
       </c>
       <c r="C100" t="n">
-        <v>3170.61</v>
+        <v>5185.62</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06708</v>
+        <v>3.06674</v>
       </c>
       <c r="B101" t="n">
-        <v>3.16956</v>
+        <v>5.14491</v>
       </c>
       <c r="C101" t="n">
-        <v>3169.56</v>
+        <v>5144.91</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09725</v>
+        <v>3.09554</v>
       </c>
       <c r="B102" t="n">
-        <v>3.16847</v>
+        <v>5.11002</v>
       </c>
       <c r="C102" t="n">
-        <v>3168.47</v>
+        <v>5110.02</v>
       </c>
     </row>
   </sheetData>
